--- a/test.xlsx
+++ b/test.xlsx
@@ -21,16 +21,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -49,22 +46,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -362,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,58 +358,53 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" t="n">
+        <v>16.67632848847679</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>15.71024602304092</v>
+        <v>17.787315</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>17.22885536969088</v>
+        <v>16.10377599082324</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>16.78104533083291</v>
+        <v>17.70342</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>16.35407845576962</v>
+        <v>17.10808171922956</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>16.33441689049402</v>
+        <v>16.99813372930783</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>17.09274574217486</v>
+        <v>16.49457940583927</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>17.2564767750444</v>
+        <v>16.71986587891587</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>16.45356799738173</v>
+        <v>16.44046735958519</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>16.38835994850722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="n">
-        <v>17.11888942973538</v>
+        <v>15.49382306193328</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -359,52 +359,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>16.67632848847679</v>
+        <v>17.05443219947866</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>17.787315</v>
+        <v>17.11297689133074</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>16.10377599082324</v>
+        <v>16.78313955193191</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>17.70342</v>
+        <v>16.33713498461266</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>17.10808171922956</v>
+        <v>17.30922597452606</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>16.99813372930783</v>
+        <v>16.68082997295395</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>16.49457940583927</v>
+        <v>16.32995891797985</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>16.71986587891587</v>
+        <v>17.10101204440819</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>16.44046735958519</v>
+        <v>16.80536188956136</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>15.49382306193328</v>
+        <v>17.32481890889563</v>
       </c>
     </row>
   </sheetData>
